--- a/Data/Accessories_class.xlsx
+++ b/Data/Accessories_class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignacioguerra/Desktop/DATA BOOTCAMP CODING/MODULE_20_FINAL_PROJECT/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignacioguerra/Desktop/DATA_BOOTCAMP_CODING/MODULE_20_FINAL_PROJECT/Project_Group/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12512867-07A8-6F4F-9D99-196D5FF2494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E39807-F085-DD49-949F-F5CD68E748C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="760" windowWidth="15420" windowHeight="17840" xr2:uid="{5D3D6A5E-8899-497F-A5BB-472930CA2559}"/>
+    <workbookView xWindow="14520" yWindow="760" windowWidth="15420" windowHeight="17840" activeTab="1" xr2:uid="{5D3D6A5E-8899-497F-A5BB-472930CA2559}"/>
   </bookViews>
   <sheets>
     <sheet name="Accessories_class" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,14 @@
     <sheet name="Pivot for Option2" sheetId="3" r:id="rId4"/>
     <sheet name="glasses_ML" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Accessories_class (2)'!$A$1:$E$88</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
-    <pivotCache cacheId="12" r:id="rId7"/>
-    <pivotCache cacheId="17" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2791,7 +2794,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADB92AC1-BAF4-3A4B-86C0-BCAA8F92AC76}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADB92AC1-BAF4-3A4B-86C0-BCAA8F92AC76}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B98" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3291,7 +3294,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55BAD229-6CA0-7945-8475-BE9190CC4D53}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55BAD229-6CA0-7945-8475-BE9190CC4D53}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B91" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -3678,7 +3681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91B3000C-E888-1E4C-8135-394E27BBB67B}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91B3000C-E888-1E4C-8135-394E27BBB67B}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E94" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -4469,9 +4472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB1CAA1-AFC1-481F-9CE9-D89AB91A7181}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5723,15 +5726,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62CB5A2-2BE3-744C-A06D-3F08A7F10CF2}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -7231,6 +7235,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E88" xr:uid="{F62CB5A2-2BE3-744C-A06D-3F08A7F10CF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
